--- a/sample_import_files/product_types.xlsx
+++ b/sample_import_files/product_types.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>code</t>
   </si>
@@ -28,16 +28,13 @@
     <t>ALIM</t>
   </si>
   <si>
-    <t>HABIL</t>
-  </si>
-  <si>
-    <t>LOGEM</t>
-  </si>
-  <si>
-    <t>MEUBLE</t>
-  </si>
-  <si>
-    <t>SANTE</t>
+    <t>HAB</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>TRANS</t>
   </si>
   <si>
     <t>Alimentation</t>
@@ -49,25 +46,19 @@
     <t>Logement</t>
   </si>
   <si>
-    <t>Ameublement</t>
-  </si>
-  <si>
-    <t>Santé</t>
-  </si>
-  <si>
-    <t>Produits alimentaires et boissons</t>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Produits alimentaires</t>
   </si>
   <si>
     <t>Vêtements et chaussures</t>
   </si>
   <si>
-    <t>Logement, eau, électricité, gaz</t>
-  </si>
-  <si>
-    <t>Meubles, articles de ménage</t>
-  </si>
-  <si>
-    <t>Produits et services de santé</t>
+    <t>Logement et services</t>
+  </si>
+  <si>
+    <t>Transport et communication</t>
   </si>
 </sst>
 </file>
@@ -425,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,10 +438,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,10 +460,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,21 +471,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
